--- a/output/Champion-manufacturing-output.xlsx
+++ b/output/Champion-manufacturing-output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="416">
   <si>
     <t>mfr website</t>
   </si>
@@ -1201,25 +1201,31 @@
     <t>N</t>
   </si>
   <si>
-    <t xml:space="preserve">250 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 </t>
-  </si>
-  <si>
-    <t>29″ (73.7 cm) – 34″ (86.4 cm)</t>
-  </si>
-  <si>
-    <t>30″ (76.2 cm) – 35″ 88.9 cm)</t>
-  </si>
-  <si>
-    <t>19″ (48 cm)</t>
-  </si>
-  <si>
-    <t>22″ (55.9 cm)</t>
-  </si>
-  <si>
-    <t>28″ (71 cm)</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>17.75</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>https://championchair.com/product/the-440/</t>
@@ -1240,7 +1246,7 @@
     <t>https://championchair.com/product/8550/</t>
   </si>
   <si>
-    <t>https://championchair.com/wp-content/uploads/2022/01/440_ColonialBlue-1230709-1024x1024.png.webp</t>
+    <t>https://championchair.com/wp-content/uploads/2022/01/440_ColonialBlue-1230709-1024x1024.png</t>
   </si>
   <si>
     <t>https://championchair.com/wp-content/uploads/2022/01/430_Grey-1580241-1024x1024.png</t>
@@ -1249,7 +1255,7 @@
     <t>https://championchair.com/wp-content/uploads/2022/01/435_Natural-9872724-1024x1024.png</t>
   </si>
   <si>
-    <t>https://championchair.com/wp-content/uploads/2022/01/445_Bucksuede-7532577-1024x1024.png.webp</t>
+    <t>https://championchair.com/wp-content/uploads/2022/01/445_Bucksuede-7532577-1024x1024.png</t>
   </si>
   <si>
     <t>https://championchair.com/wp-content/uploads/2022/01/8570_ColonialBlue-3018087-1024x1024.png</t>
@@ -2786,8 +2792,11 @@
       <c r="Z51" t="s">
         <v>395</v>
       </c>
+      <c r="AB51" t="s">
+        <v>397</v>
+      </c>
       <c r="AC51" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AD51" t="s">
         <v>394</v>
@@ -2799,13 +2808,13 @@
         <v>394</v>
       </c>
       <c r="AJ51" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN51" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AO51" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -2877,8 +2886,11 @@
       <c r="Z53" t="s">
         <v>395</v>
       </c>
+      <c r="AB53" t="s">
+        <v>398</v>
+      </c>
       <c r="AC53" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AD53" t="s">
         <v>394</v>
@@ -2890,13 +2902,13 @@
         <v>394</v>
       </c>
       <c r="AJ53" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AN53" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AO53" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -2949,10 +2961,10 @@
         <v>395</v>
       </c>
       <c r="AB54" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AC54" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AD54" t="s">
         <v>394</v>
@@ -2964,13 +2976,13 @@
         <v>394</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AN54" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AO54" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -3023,10 +3035,10 @@
         <v>395</v>
       </c>
       <c r="AB55" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AC55" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AD55" t="s">
         <v>394</v>
@@ -3038,13 +3050,13 @@
         <v>394</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN55" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AO55" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -4416,8 +4428,11 @@
       <c r="Z122" t="s">
         <v>396</v>
       </c>
+      <c r="AB122" t="s">
+        <v>400</v>
+      </c>
       <c r="AC122" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AD122" t="s">
         <v>394</v>
@@ -4429,13 +4444,13 @@
         <v>394</v>
       </c>
       <c r="AJ122" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN122" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO122" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="1:41">
@@ -4508,10 +4523,10 @@
         <v>396</v>
       </c>
       <c r="AB124" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AC124" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AD124" t="s">
         <v>394</v>
@@ -4523,13 +4538,13 @@
         <v>394</v>
       </c>
       <c r="AJ124" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AN124" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AO124" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:41">
